--- a/screen shots/timesheet.xlsx
+++ b/screen shots/timesheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\medhat\COLLAGE\1-AinShams Uni Eng. Collage\7-MEDHAT SPRING 2020\1-distrbuted\4-labs\3-Reports\project2\screen shots\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\medhat\COLLAGE\1-AinShams Uni Eng. Collage\7-MEDHAT SPRING 2020\1-distrbuted\4-labs\3-Reports\project2\project\screen shots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA29E208-3166-4541-9C9D-4F76D2A44BCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F9FE10D-534B-4717-94E4-6571660A445C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-7788" windowWidth="23256" windowHeight="13176" xr2:uid="{BB92A5DA-DD1A-45CF-8BA9-B6831AE2E30F}"/>
   </bookViews>
@@ -911,9 +911,8 @@
         <c:axId val="793074960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="3"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -950,7 +949,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Time</a:t>
+                  <a:t>number of threads</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -984,43 +983,10 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="793072720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
@@ -1067,12 +1033,9 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Number</a:t>
+                  <a:t>time</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> of threads</a:t>
-                </a:r>
+                <a:endParaRPr lang="en-US" baseline="0"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1106,7 +1069,7 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1137,7 +1100,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="793074960"/>
-        <c:crossesAt val="1"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -1770,15 +1733,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>404676</xdr:colOff>
+      <xdr:colOff>823776</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>453662</xdr:colOff>
+      <xdr:colOff>872762</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>151857</xdr:rowOff>
+      <xdr:rowOff>85182</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2106,7 +2069,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="F2" sqref="F2:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2175,13 +2138,13 @@
         <v>0.249364</v>
       </c>
       <c r="D2" s="1">
-        <v>2.9365100000000002E-2</v>
+        <v>4.0411000000000002E-2</v>
       </c>
       <c r="E2" s="1">
-        <v>3.0126199999999999E-2</v>
+        <v>4.0521500000000002E-2</v>
       </c>
       <c r="F2" s="1">
-        <v>3.1502200000000001E-2</v>
+        <v>3.1770899999999998E-2</v>
       </c>
       <c r="H2" s="1">
         <v>2</v>
@@ -2213,13 +2176,13 @@
         <v>0.249364</v>
       </c>
       <c r="D3" s="1">
-        <v>3.0924199999999999E-2</v>
+        <v>3.8748699999999997E-2</v>
       </c>
       <c r="E3" s="1">
-        <v>2.9735899999999999E-2</v>
+        <v>3.8629900000000002E-2</v>
       </c>
       <c r="F3" s="1">
-        <v>3.01172E-2</v>
+        <v>3.1502200000000001E-2</v>
       </c>
       <c r="H3" s="1">
         <v>4</v>
@@ -2251,13 +2214,13 @@
         <v>0.249364</v>
       </c>
       <c r="D4" s="1">
-        <v>4.0411000000000002E-2</v>
+        <v>3.7520199999999997E-2</v>
       </c>
       <c r="E4" s="1">
         <v>3.2916399999999998E-2</v>
       </c>
       <c r="F4" s="1">
-        <v>3.1770899999999998E-2</v>
+        <v>2.9984500000000001E-2</v>
       </c>
       <c r="H4" s="1">
         <v>8</v>
@@ -2289,13 +2252,13 @@
         <v>0.249364</v>
       </c>
       <c r="D5" s="1">
-        <v>3.8748699999999997E-2</v>
+        <v>3.0924199999999999E-2</v>
       </c>
       <c r="E5" s="1">
-        <v>3.8629900000000002E-2</v>
+        <v>3.0126199999999999E-2</v>
       </c>
       <c r="F5" s="1">
-        <v>2.9984500000000001E-2</v>
+        <v>3.01172E-2</v>
       </c>
       <c r="H5" s="1">
         <v>16</v>
@@ -2327,10 +2290,10 @@
         <v>0.249364</v>
       </c>
       <c r="D6" s="1">
-        <v>3.7520199999999997E-2</v>
+        <v>2.9365100000000002E-2</v>
       </c>
       <c r="E6" s="1">
-        <v>4.0521500000000002E-2</v>
+        <v>2.9735899999999999E-2</v>
       </c>
       <c r="F6" s="1">
         <v>3.0013600000000001E-2</v>
